--- a/Обрабатываемые/Опросный лист УБП.xlsx
+++ b/Обрабатываемые/Опросный лист УБП.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Бланки переключений" sheetId="4" r:id="rId1"/>
     <sheet name="Справочные данные" sheetId="1" r:id="rId2"/>
     <sheet name="Пользователи" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -746,27 +746,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9797"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9797"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9797"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1203,6 +1182,27 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9797"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9797"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9797"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1231,16 +1231,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:M5" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="УБП" displayName="УБП" ref="A3:M5" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A3:M5"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="№ п.п." dataDxfId="15">
+    <tableColumn id="1" name="№ п.п." dataDxfId="12">
       <calculatedColumnFormula>IFERROR(A3+1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Организация" dataDxfId="14"/>
-    <tableColumn id="3" name="Подразделение" dataDxfId="13"/>
-    <tableColumn id="4" name="ФИО" dataDxfId="12"/>
-    <tableColumn id="5" name="Столбец1" dataDxfId="11">
+    <tableColumn id="2" name="Организация" dataDxfId="11"/>
+    <tableColumn id="3" name="Подразделение" dataDxfId="10"/>
+    <tableColumn id="4" name="ФИО" dataDxfId="9"/>
+    <tableColumn id="5" name="Столбец1" dataDxfId="8">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D4)),
                              IF(LEN(TRIM(D4))-LEN(SUBSTITUTE(TRIM(D4)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D4,FIND(" ",D4)-1))&gt;=2,
@@ -1251,14 +1251,14 @@
                               FALSE),
                 FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Учетная запись в MS AD" dataDxfId="10"/>
-    <tableColumn id="6" name="Должность" dataDxfId="9"/>
-    <tableColumn id="7" name="Аудит программ (бланков) переключений" dataDxfId="8"/>
-    <tableColumn id="8" name="Исполнение программ (бланков) переключений" dataDxfId="7"/>
-    <tableColumn id="9" name="Разрешение исполнения пограмм (бланков) переключений" dataDxfId="6"/>
-    <tableColumn id="10" name="Расширенное редактирование пограмм (бланков) переключений" dataDxfId="5"/>
-    <tableColumn id="11" name="Упрощенное редактирование бланков переключений" dataDxfId="4"/>
-    <tableColumn id="12" name="Согласование и утверждение типовых пограмм (бланков) переключений" dataDxfId="3"/>
+    <tableColumn id="13" name="Учетная запись в MS AD" dataDxfId="7"/>
+    <tableColumn id="6" name="Должность" dataDxfId="6"/>
+    <tableColumn id="7" name="Аудит программ (бланков) переключений" dataDxfId="5"/>
+    <tableColumn id="8" name="Исполнение программ (бланков) переключений" dataDxfId="4"/>
+    <tableColumn id="9" name="Разрешение исполнения пограмм (бланков) переключений" dataDxfId="3"/>
+    <tableColumn id="10" name="Расширенное редактирование пограмм (бланков) переключений" dataDxfId="2"/>
+    <tableColumn id="11" name="Упрощенное редактирование бланков переключений" dataDxfId="1"/>
+    <tableColumn id="12" name="Согласование и утверждение типовых пограмм (бланков) переключений" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1529,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1692,9 +1692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,17 +1845,17 @@
     <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="19" priority="3">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="18" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
